--- a/统计.xlsx
+++ b/统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3A49A-319D-45CD-9739-07054FD6B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED5E016-DD28-4B36-87C6-9EE34C68B86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45225" yWindow="705" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5478,30 +5486,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="25.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="9" width="42.4140625" customWidth="1"/>
-    <col min="10" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="22.58203125" customWidth="1"/>
-    <col min="13" max="13" width="12.08203125" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="8" max="9" width="42.375" customWidth="1"/>
+    <col min="10" max="11" width="19.125" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
     <col min="15" max="15" width="28.75" customWidth="1"/>
     <col min="16" max="16" width="12.25" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" customWidth="1"/>
+    <col min="17" max="17" width="24.375" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
     <col min="19" max="19" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +5568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -5627,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -5694,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -5828,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -5962,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -6029,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -6163,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -6297,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -6364,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
@@ -6431,7 +6439,7 @@
         <v>1.0025062656641603</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>18</v>
       </c>
@@ -6498,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>19</v>
       </c>
@@ -6565,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21</v>
       </c>
@@ -6699,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22</v>
       </c>
@@ -6766,7 +6774,7 @@
         <v>1.2690355329949239</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23</v>
       </c>
@@ -6833,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24</v>
       </c>
@@ -6900,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25</v>
       </c>
@@ -6967,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26</v>
       </c>
@@ -7034,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27</v>
       </c>
@@ -7101,7 +7109,7 @@
         <v>2.7906976744186047</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>28</v>
       </c>
@@ -7168,7 +7176,7 @@
         <v>0.68807339449541294</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>29</v>
       </c>
@@ -7235,7 +7243,7 @@
         <v>1.1441647597254003</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -7302,7 +7310,7 @@
         <v>0.42553191489361702</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31</v>
       </c>
@@ -7345,7 +7353,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>32</v>
       </c>
@@ -7388,7 +7396,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>33</v>
       </c>
@@ -7431,7 +7439,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>34</v>
       </c>
@@ -7474,7 +7482,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>35</v>
       </c>
@@ -7517,7 +7525,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>36</v>
       </c>
@@ -7560,7 +7568,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>37</v>
       </c>
@@ -7603,7 +7611,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -7646,7 +7654,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>39</v>
       </c>
@@ -7689,7 +7697,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
@@ -7732,7 +7740,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>41</v>
       </c>
@@ -7775,7 +7783,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>42</v>
       </c>
@@ -7818,7 +7826,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>43</v>
       </c>
@@ -7861,7 +7869,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45</v>
       </c>
@@ -7947,7 +7955,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46</v>
       </c>
@@ -7990,7 +7998,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47</v>
       </c>
@@ -8033,7 +8041,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48</v>
       </c>
@@ -8076,7 +8084,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>49</v>
       </c>
@@ -8119,7 +8127,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50</v>
       </c>
@@ -8162,7 +8170,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>51</v>
       </c>
@@ -8205,7 +8213,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>52</v>
       </c>
@@ -8248,7 +8256,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>53</v>
       </c>
@@ -8291,7 +8299,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>54</v>
       </c>
@@ -8334,7 +8342,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>55</v>
       </c>
@@ -8377,7 +8385,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>56</v>
       </c>
@@ -8420,7 +8428,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>57</v>
       </c>
@@ -8463,7 +8471,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -8506,7 +8514,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>59</v>
       </c>
@@ -8549,7 +8557,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>60</v>
       </c>
@@ -8592,7 +8600,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>61</v>
       </c>
@@ -8635,7 +8643,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>62</v>
       </c>
@@ -8678,7 +8686,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>63</v>
       </c>
@@ -8721,7 +8729,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>64</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>65</v>
       </c>
@@ -8807,7 +8815,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>66</v>
       </c>
@@ -8850,7 +8858,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>67</v>
       </c>
@@ -8893,7 +8901,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>68</v>
       </c>
@@ -8936,7 +8944,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>69</v>
       </c>
@@ -8979,7 +8987,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>70</v>
       </c>
@@ -9022,7 +9030,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>71</v>
       </c>
@@ -9065,7 +9073,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>72</v>
       </c>
@@ -9108,50 +9116,50 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>73</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>729</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>727</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <f t="shared" si="8"/>
         <v>-2</v>
       </c>
-      <c r="E70" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70">
+      <c r="E70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
         <v>203</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <f t="shared" si="9"/>
         <v>213</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <v>369</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>899</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1">
         <f t="shared" si="10"/>
         <v>2628</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="1">
         <f t="shared" si="11"/>
         <v>0.34208523592085238</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="1">
         <f t="shared" si="12"/>
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>74</v>
       </c>
@@ -9194,7 +9202,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>75</v>
       </c>
@@ -9237,7 +9245,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>76</v>
       </c>
@@ -9280,7 +9288,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>77</v>
       </c>
@@ -9323,7 +9331,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>78</v>
       </c>
@@ -9366,7 +9374,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>79</v>
       </c>
@@ -9409,7 +9417,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>80</v>
       </c>
@@ -9452,7 +9460,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>81</v>
       </c>
@@ -9495,7 +9503,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>82</v>
       </c>
@@ -9538,7 +9546,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>83</v>
       </c>
@@ -9581,7 +9589,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>84</v>
       </c>
@@ -9624,7 +9632,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>85</v>
       </c>
@@ -9667,7 +9675,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>86</v>
       </c>
@@ -9710,7 +9718,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>87</v>
       </c>
@@ -9753,7 +9761,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>88</v>
       </c>
@@ -9796,7 +9804,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>89</v>
       </c>
@@ -9839,7 +9847,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>90</v>
       </c>
@@ -9882,7 +9890,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -9925,7 +9933,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -9968,7 +9976,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -10011,7 +10019,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -10054,7 +10062,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -10097,7 +10105,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -10140,7 +10148,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -10183,7 +10191,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -10226,7 +10234,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -10269,7 +10277,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9490C13-4544-4901-85AA-2216980AF888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1039C9-C819-4395-8D47-9738F880A2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,8 +270,3695 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>complete</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1596</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2485</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2926</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3403</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3828</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4371</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4465</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4656</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4851</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5151</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5253</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5356</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5460</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5565</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5671</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5778</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5886</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6105</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6216</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6328</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6441</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6555</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6670</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6786</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6903</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7021</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7140</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7260</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7381</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7503</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7626</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7875</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8256</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8385</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8515</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8646</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8778</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8911</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9045</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9180</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9316</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9453</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9591</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9730</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9870</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>10011</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>10153</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>10296</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>10440</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>10585</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>10731</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10878</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11026</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11325</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11476</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11628</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11781</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11935</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12090</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12246</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12403</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12561</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12720</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12880</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13041</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>13203</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13366</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>13530</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>13695</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>13861</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>14028</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>14196</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14365</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14535</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>14706</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14878</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>15051</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>15225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>15576</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>15753</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>15931</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>16110</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>16290</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>16471</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>16653</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>16836</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>17020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17205</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>17391</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>17578</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>17766</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17955</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18145</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18336</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18528</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18721</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>18915</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19110</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19306</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19503</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19701</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2276-4C01-BCE6-07557F4F8071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>de_nei2_nei3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1247</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1675</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2319</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2248</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2371</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2406</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2323</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2417</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2492</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2664</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2673</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2724</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2836</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2837</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2757</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3016</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3040</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3212</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3043</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2985</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3152</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3147</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3218</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3203</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3269</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3662</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3311</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3378</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3430</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3554</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3390</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3298</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3386</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3659</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3585</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3767</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3747</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3683</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3612</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3772</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3898</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3774</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3954</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3790</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3902</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3860</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4069</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4023</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4036</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4033</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4197</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3978</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4171</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4198</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE44-45BF-B1CC-0BA23EEA1254}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>de_seg1_seg2_seg3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1137</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1574</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1659</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1666</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1687</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1672</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1783</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2174</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2208</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2257</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2284</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2355</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2348</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2398</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE44-45BF-B1CC-0BA23EEA1254}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>delaunay</c:v>
           </c:tx>
@@ -1495,3693 +5182,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2276-4C01-BCE6-07557F4F8071}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>de_seg1_seg2_seg3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="196"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="196"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>542</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>653</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>616</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>677</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>711</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>733</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>771</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>766</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>802</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>863</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>858</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>871</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>844</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>877</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>889</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>905</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>916</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>955</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>926</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1021</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1051</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1087</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1123</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1143</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1138</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1137</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1129</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1159</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1209</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1171</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1228</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1240</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1248</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1276</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1255</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1299</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1313</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1304</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1310</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1323</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1359</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1351</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1333</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1397</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1385</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1417</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1418</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1429</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1402</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1462</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1447</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1451</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1511</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1496</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1537</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1541</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1586</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1544</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1574</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1623</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1572</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1586</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1605</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1649</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1618</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1701</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1659</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1666</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1687</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1677</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1672</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1723</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1730</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1783</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1747</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1790</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1779</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1826</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1842</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1832</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1841</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1888</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1871</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1891</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1849</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1916</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1932</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1930</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1918</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2076</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2103</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2125</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2082</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2148</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>2147</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2174</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2147</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2208</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2257</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2197</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2227</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2234</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2301</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2284</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2264</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2280</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2336</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2321</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2355</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2348</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2388</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2356</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2398</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2394</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE44-45BF-B1CC-0BA23EEA1254}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>de_nei2_nei3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="196"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="196"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>559</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>613</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>683</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>753</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>771</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>772</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>792</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>846</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>902</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1220</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1099</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1182</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1224</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1202</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1197</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1247</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1240</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1334</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1286</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1358</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1318</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1427</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1416</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1372</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1402</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1433</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1508</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1525</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1561</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1562</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1556</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1599</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1599</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1634</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1789</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1679</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1682</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1675</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1776</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1771</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1835</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1854</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1777</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1874</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1854</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1831</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1921</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2067</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2063</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2127</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2065</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2086</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2090</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2161</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2162</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2210</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2319</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2290</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2248</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2371</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2406</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2323</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2389</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2321</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2417</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2492</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2664</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2471</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2740</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2673</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2646</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2681</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2620</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2660</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2565</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2781</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2724</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2621</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2836</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2890</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2837</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2757</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2928</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2776</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2995</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3016</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3040</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3144</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3212</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3043</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3141</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2985</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>3132</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>3095</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>3217</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3152</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>3147</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3218</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>3203</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3269</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3281</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>3662</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>3311</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>3378</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>3430</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>3554</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>3390</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>3298</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>3401</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3386</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>3659</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>3536</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>3585</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3767</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>3747</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>3693</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>3683</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>3612</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>3772</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3898</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3720</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>3784</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>3774</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>3954</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>3790</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3740</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>3973</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>3902</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>3962</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>3860</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>3997</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>4077</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>4069</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>4023</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>4036</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>4033</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>4197</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>3978</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>4171</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>4198</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>4312</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CE44-45BF-B1CC-0BA23EEA1254}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>complete</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="196"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$197</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="196"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>595</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>666</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>741</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>820</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>861</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1081</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1128</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1176</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1225</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1275</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1326</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1378</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1431</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1485</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1540</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1596</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1653</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1711</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1770</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1830</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1891</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1953</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2145</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2211</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2278</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2346</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2415</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2485</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2556</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2628</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2701</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2775</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2850</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2926</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3081</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3160</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3240</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3321</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3403</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3486</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3570</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3655</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3741</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3828</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3916</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4005</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4186</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4278</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4371</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4465</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4560</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4656</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4753</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4851</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4950</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5050</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5151</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5253</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5356</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5460</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5565</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5671</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5778</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5886</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>5995</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>6105</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>6216</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>6328</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>6441</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>6555</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6670</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6786</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6903</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>7021</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>7140</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>7260</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>7381</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7503</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>7626</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>7750</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>7875</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>8001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>8128</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>8256</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>8385</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>8515</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>8646</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>8778</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>8911</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>9045</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>9180</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>9316</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>9453</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>9591</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>9730</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>9870</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>10011</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>10153</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>10296</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>10440</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>10585</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>10731</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>10878</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>11026</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>11175</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>11325</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>11476</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>11628</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>11781</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>11935</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>12090</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>12246</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>12403</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>12561</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>12720</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>12880</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>13041</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>13203</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>13366</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>13530</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>13695</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>13861</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>14028</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>14196</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>14365</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>14535</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>14706</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>14878</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>15051</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>15225</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>15400</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>15576</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>15753</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>15931</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>16110</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>16290</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>16471</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>16653</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>16836</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>17020</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>17205</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>17391</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>17578</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>17766</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>17955</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>18145</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>18336</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>18528</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>18721</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>18915</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>19110</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>19306</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>19503</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>19701</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>19900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-2276-4C01-BCE6-07557F4F8071}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6021,16 +6021,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>377827</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>63607</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1419227</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>12807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>98137</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>105064</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6061,7 +6061,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="自定义 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6081,7 +6081,7 @@
         <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="FFC000"/>
@@ -6323,31 +6323,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="M79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ105" sqref="AJ105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="5" width="17" customWidth="1"/>
     <col min="6" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="42.375" customWidth="1"/>
+    <col min="9" max="9" width="16.08203125" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" customWidth="1"/>
     <col min="11" max="12" width="49.25" customWidth="1"/>
-    <col min="13" max="14" width="19.125" customWidth="1"/>
-    <col min="15" max="15" width="22.625" customWidth="1"/>
-    <col min="16" max="16" width="12.125" customWidth="1"/>
-    <col min="17" max="17" width="15.375" customWidth="1"/>
+    <col min="13" max="14" width="19.08203125" customWidth="1"/>
+    <col min="15" max="15" width="22.58203125" customWidth="1"/>
+    <col min="16" max="16" width="12.08203125" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
     <col min="18" max="18" width="28.75" customWidth="1"/>
     <col min="19" max="19" width="12.25" customWidth="1"/>
-    <col min="20" max="20" width="24.375" customWidth="1"/>
-    <col min="21" max="21" width="11.875" customWidth="1"/>
+    <col min="20" max="20" width="24.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" customWidth="1"/>
     <col min="22" max="22" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>1.0025062656641603</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>1.2690355329949239</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>2.7906976744186047</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>0.68807339449541294</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>1.1441647597254003</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>0.42553191489361702</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>46</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>47</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>48</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>49</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>51</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>52</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>54</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>55</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>57</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>59</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>60</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>61</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>62</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>63</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>66</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>67</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>69</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>70</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>71</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>72</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>74</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>75</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>76</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>77</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>78</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>79</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>80</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>81</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>82</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>83</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>84</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>85</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>86</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>87</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>88</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>89</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>90</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>91</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>92</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>93</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>94</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>95</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>96</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>97</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>98</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>99</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>100</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>101</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>102</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>5151</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>103</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>104</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>5356</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>105</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>106</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>107</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>108</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>109</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>5886</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>110</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>5995</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>111</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>112</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>113</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>6328</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>114</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>6441</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>115</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>116</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>6670</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>117</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>118</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>119</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>7021</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>120</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>121</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>7260</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>122</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>7381</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>123</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>124</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>7626</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>125</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>126</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>7875</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>127</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>128</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>8128</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>129</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>130</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>8385</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>131</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>8515</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>132</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>8646</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>133</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>134</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>8911</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>135</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>9045</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>136</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>137</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>9316</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>138</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>9453</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>139</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>9591</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>140</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>9730</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>141</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>9870</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>142</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>10011</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>143</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>10153</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>144</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>10296</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>145</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>146</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>10585</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>147</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>10731</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>148</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>10878</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>149</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>11026</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>150</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>11175</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>151</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>11325</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>152</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>11476</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>153</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>11628</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>154</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>11781</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>155</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>11935</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>156</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>12090</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>157</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>12246</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>158</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>12403</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>159</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>12561</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>160</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>12720</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>161</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>12880</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>162</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>13041</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>163</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>13203</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>164</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>13366</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>165</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>13530</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>166</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>13695</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>167</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>13861</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>168</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>14028</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>169</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>14196</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>170</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>14365</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>171</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>14535</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>172</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>14706</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>173</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>14878</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>174</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>15051</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>175</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>15225</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>176</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>177</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>15576</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>178</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>15753</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>179</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>15931</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>180</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>16110</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>181</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>16290</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>182</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>16471</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>183</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>16653</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>184</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>16836</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>185</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>17020</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>186</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>17205</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>187</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>17391</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>188</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>17578</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>189</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>17766</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>190</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>17955</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>191</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>18145</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>192</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>18336</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>193</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>18528</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>194</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>18721</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>195</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>18915</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>196</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>19110</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>197</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>19306</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>198</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>19503</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>199</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>19701</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>200</v>
       </c>
